--- a/Reports/working_hours.xlsx
+++ b/Reports/working_hours.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sep 2019" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Oct 2019" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Nov 2019" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -147,6 +148,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -165,11 +169,14 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -179,4 +186,27 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Reports/working_hours.xlsx
+++ b/Reports/working_hours.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sep 2019" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subject</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -93,9 +110,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -115,17 +140,384 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="1" sqref="A1:G39 H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -141,17 +533,299 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -167,17 +841,369 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -195,8 +1221,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="A1:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
